--- a/data/trans_dic/iP16_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP16_n_R2-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>54,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>43,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>47,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>19,66%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,17; 41,51</t>
+          <t>17,6; 89,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 24,47</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 23,86</t>
+          <t>0,0; 85,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 45,8</t>
+          <t>0,0; 67,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,61; 52,31</t>
+          <t>17,77; 75,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 24,33</t>
+          <t>26,83; 90,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 25,87</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,71; 48,5</t>
+          <t>0,0; 69,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,29; 43,51</t>
+          <t>23,93; 70,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 19,79</t>
+          <t>18,99; 82,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,8; 20,54</t>
+          <t>0,0; 41,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,1; 42,65</t>
+          <t>4,94; 47,82</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>45,62%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>34,39%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,77; 58,37</t>
+          <t>19,17; 41,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 26,86</t>
+          <t>5,14; 24,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 17,56</t>
+          <t>6,2; 23,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,22; 53,6</t>
+          <t>24,49; 45,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,14; 61,88</t>
+          <t>28,61; 52,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 27,5</t>
+          <t>5,99; 24,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 26,83</t>
+          <t>8,43; 25,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,67; 50,27</t>
+          <t>22,71; 48,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,62; 55,37</t>
+          <t>26,29; 43,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,4; 23,86</t>
+          <t>7,54; 19,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 18,44</t>
+          <t>8,8; 20,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,02; 47,23</t>
+          <t>26,1; 42,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>54,72%</t>
+          <t>47,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,24%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>51,26%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>30,82%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,6; 89,46</t>
+          <t>34,99; 61,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>3,32; 19,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,19</t>
+          <t>13,38; 39,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,79</t>
+          <t>22,94; 47,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,77; 75,89</t>
+          <t>20,6; 47,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,83; 90,5</t>
+          <t>9,76; 31,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>4,1; 25,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,9</t>
+          <t>15,91; 38,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,93; 70,42</t>
+          <t>30,73; 50,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 82,31</t>
+          <t>7,23; 20,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,85</t>
+          <t>10,27; 27,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 47,82</t>
+          <t>22,13; 39,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>44,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>36,5%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,99; 61,53</t>
+          <t>31,77; 58,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 19,26</t>
+          <t>8,85; 26,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,38; 39,47</t>
+          <t>2,0; 17,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,94; 47,03</t>
+          <t>25,22; 53,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,6; 47,79</t>
+          <t>29,14; 61,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,76; 31,06</t>
+          <t>8,36; 27,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 25,31</t>
+          <t>4,99; 26,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,91; 38,65</t>
+          <t>21,67; 50,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,73; 50,52</t>
+          <t>35,62; 55,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,23; 20,23</t>
+          <t>10,4; 23,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,27; 27,01</t>
+          <t>5,27; 18,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,13; 39,68</t>
+          <t>26,02; 47,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP16_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP16_n_R2-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 75,89</t>
+          <t>17,31; 74,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,83; 90,5</t>
+          <t>25,6; 89,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,93; 70,42</t>
+          <t>24,58; 69,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,99; 82,31</t>
+          <t>20,43; 83,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,85</t>
+          <t>0,0; 57,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,36; 50,83</t>
+          <t>20,04; 50,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,17; 33,67</t>
+          <t>9,24; 33,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 25,69</t>
+          <t>3,1; 29,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 48,04</t>
+          <t>13,65; 45,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 51,28</t>
+          <t>20,19; 51,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 35,65</t>
+          <t>6,76; 35,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 27,42</t>
+          <t>3,01; 24,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,12; 69,03</t>
+          <t>31,82; 67,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,78; 45,51</t>
+          <t>24,11; 45,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 27,66</t>
+          <t>10,56; 27,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 20,8</t>
+          <t>4,74; 21,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,45; 52,67</t>
+          <t>27,13; 52,24</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,17; 41,51</t>
+          <t>18,93; 41,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 24,47</t>
+          <t>5,13; 23,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 23,86</t>
+          <t>6,28; 24,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,49; 45,8</t>
+          <t>24,79; 46,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,61; 52,31</t>
+          <t>28,34; 51,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 24,33</t>
+          <t>6,01; 22,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 25,87</t>
+          <t>8,59; 25,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,71; 48,5</t>
+          <t>22,69; 47,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,29; 43,51</t>
+          <t>26,82; 43,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 19,79</t>
+          <t>7,57; 20,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 20,54</t>
+          <t>9,3; 21,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,1; 42,65</t>
+          <t>26,78; 42,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,99; 61,53</t>
+          <t>33,93; 60,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 19,26</t>
+          <t>3,31; 18,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 39,47</t>
+          <t>12,8; 36,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,94; 47,03</t>
+          <t>22,85; 46,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,6; 47,79</t>
+          <t>20,07; 48,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 31,06</t>
+          <t>9,83; 30,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 25,31</t>
+          <t>4,09; 21,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 38,65</t>
+          <t>16,45; 39,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,73; 50,52</t>
+          <t>30,84; 50,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 20,23</t>
+          <t>7,83; 20,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 27,01</t>
+          <t>10,29; 26,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,13; 39,68</t>
+          <t>21,79; 38,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,77; 58,37</t>
+          <t>32,83; 58,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,85; 26,86</t>
+          <t>7,75; 27,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 17,56</t>
+          <t>1,98; 17,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,22; 53,6</t>
+          <t>24,89; 53,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,14; 61,88</t>
+          <t>27,36; 59,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 27,5</t>
+          <t>8,09; 27,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 26,83</t>
+          <t>4,78; 26,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,67; 50,27</t>
+          <t>21,61; 50,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,62; 55,37</t>
+          <t>34,07; 55,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,4; 23,86</t>
+          <t>9,89; 23,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 18,44</t>
+          <t>5,33; 18,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,02; 47,23</t>
+          <t>27,04; 46,66</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,39; 46,14</t>
+          <t>33,12; 46,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 18,94</t>
+          <t>9,54; 18,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,34; 19,39</t>
+          <t>8,9; 18,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,64; 40,71</t>
+          <t>27,69; 40,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,22; 45,53</t>
+          <t>32,05; 45,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,13; 23,57</t>
+          <t>13,42; 23,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,02; 17,78</t>
+          <t>8,82; 18,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,77; 39,94</t>
+          <t>26,1; 39,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>34,4; 44,24</t>
+          <t>34,41; 43,63</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,48; 19,8</t>
+          <t>12,67; 19,39</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,91; 17,11</t>
+          <t>10,01; 16,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,63; 38,79</t>
+          <t>29,12; 38,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP16_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP16_n_R2-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,6; 89,46</t>
+          <t>16,95; 89,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,79</t>
+          <t>0,0; 67,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,31; 74,61</t>
+          <t>17,41; 75,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,6; 89,95</t>
+          <t>15,59; 90,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,34 +759,34 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,9</t>
+          <t>0,0; 55,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 69,82</t>
+          <t>24,13; 71,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,43; 83,75</t>
+          <t>19,48; 82,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,83</t>
+          <t>0,0; 45,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 47,82</t>
+          <t>4,93; 48,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,04; 50,63</t>
+          <t>19,38; 50,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,24; 33,02</t>
+          <t>8,27; 30,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 29,21</t>
+          <t>3,15; 28,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,65; 45,4</t>
+          <t>14,26; 46,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,19; 51,97</t>
+          <t>20,51; 51,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 35,71</t>
+          <t>8,37; 35,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 24,43</t>
+          <t>3,1; 25,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,82; 67,64</t>
+          <t>32,41; 67,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,11; 45,33</t>
+          <t>23,3; 45,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 27,38</t>
+          <t>11,11; 28,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 21,78</t>
+          <t>3,55; 21,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,13; 52,24</t>
+          <t>27,03; 51,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,93; 41,76</t>
+          <t>19,16; 42,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 23,46</t>
+          <t>3,98; 22,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 24,13</t>
+          <t>6,23; 22,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,79; 46,12</t>
+          <t>24,11; 45,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,34; 51,66</t>
+          <t>27,11; 52,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,01; 22,72</t>
+          <t>6,28; 24,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,59; 25,53</t>
+          <t>8,62; 26,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,69; 47,62</t>
+          <t>23,2; 48,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,82; 43,87</t>
+          <t>26,43; 43,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 20,52</t>
+          <t>6,86; 19,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,3; 21,44</t>
+          <t>9,39; 21,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,78; 42,84</t>
+          <t>26,77; 42,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,93; 60,36</t>
+          <t>32,89; 60,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 18,92</t>
+          <t>3,32; 19,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,8; 36,84</t>
+          <t>12,34; 38,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 46,86</t>
+          <t>22,86; 46,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,07; 48,19</t>
+          <t>18,7; 47,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,83; 30,76</t>
+          <t>9,41; 31,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 21,97</t>
+          <t>4,07; 22,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,45; 39,66</t>
+          <t>16,55; 39,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,84; 50,95</t>
+          <t>32,33; 51,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 20,76</t>
+          <t>7,58; 20,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,29; 26,76</t>
+          <t>10,79; 26,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,79; 38,79</t>
+          <t>21,72; 38,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,83; 58,72</t>
+          <t>33,31; 60,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,75; 27,37</t>
+          <t>7,62; 26,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 17,83</t>
+          <t>2,0; 17,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,89; 53,1</t>
+          <t>23,55; 51,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,36; 59,36</t>
+          <t>27,16; 61,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,09; 27,13</t>
+          <t>8,28; 27,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 26,74</t>
+          <t>4,78; 24,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,61; 50,2</t>
+          <t>21,58; 49,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,07; 55,86</t>
+          <t>35,23; 56,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,89; 23,86</t>
+          <t>10,08; 22,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 18,24</t>
+          <t>5,21; 19,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,04; 46,66</t>
+          <t>26,69; 47,6</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,12; 46,62</t>
+          <t>33,21; 46,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,54; 18,81</t>
+          <t>9,89; 18,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,9; 18,9</t>
+          <t>9,39; 19,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,69; 40,48</t>
+          <t>28,48; 40,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,05; 45,45</t>
+          <t>31,35; 45,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,42; 23,49</t>
+          <t>13,2; 23,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,82; 18,12</t>
+          <t>8,29; 17,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,1; 39,89</t>
+          <t>26,2; 39,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>34,41; 43,63</t>
+          <t>34,53; 43,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,67; 19,39</t>
+          <t>12,63; 19,62</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,79</t>
+          <t>10,14; 16,88</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,12; 38,75</t>
+          <t>29,24; 38,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP16_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP16_n_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,72%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>41,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>61,24%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>51,26%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>33,85%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,95; 89,08</t>
+          <t>25,6; 52,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>13,78; 43,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,19</t>
+          <t>2,3; 18,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,71</t>
+          <t>26,56; 57,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,41; 75,76</t>
+          <t>23,68; 53,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,59; 90,72</t>
+          <t>9,69; 32,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>3,34; 29,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,3</t>
+          <t>14,01; 41,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,13; 71,94</t>
+          <t>27,18; 46,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,48; 82,58</t>
+          <t>14,4; 32,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,42</t>
+          <t>4,56; 19,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 48,03</t>
+          <t>24,4; 45,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,48%</t>
+          <t>34,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>32,91%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,38; 50,99</t>
+          <t>28,61; 52,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 30,7</t>
+          <t>5,99; 24,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 28,15</t>
+          <t>8,43; 25,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,26; 46,73</t>
+          <t>17,75; 46,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,51; 51,79</t>
+          <t>19,17; 41,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 35,62</t>
+          <t>5,14; 24,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 25,34</t>
+          <t>6,2; 23,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,41; 67,87</t>
+          <t>24,18; 45,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,3; 45,36</t>
+          <t>26,29; 43,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,11; 28,98</t>
+          <t>7,54; 19,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 21,27</t>
+          <t>8,8; 20,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,03; 51,45</t>
+          <t>24,53; 41,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>47,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>26,16%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,16; 42,21</t>
+          <t>20,6; 47,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 22,54</t>
+          <t>9,76; 31,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 22,66</t>
+          <t>4,1; 25,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,11; 45,41</t>
+          <t>7,59; 34,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,11; 52,42</t>
+          <t>34,99; 61,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 24,93</t>
+          <t>3,32; 19,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 26,42</t>
+          <t>13,38; 39,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,2; 48,03</t>
+          <t>22,6; 46,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,43; 43,08</t>
+          <t>30,73; 50,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 19,7</t>
+          <t>7,23; 20,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,39; 21,5</t>
+          <t>10,27; 27,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,77; 42,54</t>
+          <t>13,29; 36,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>44,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>35,96%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,89; 60,88</t>
+          <t>29,14; 61,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 19,06</t>
+          <t>8,36; 27,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 38,04</t>
+          <t>4,99; 26,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,86; 46,19</t>
+          <t>21,26; 49,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,7; 47,49</t>
+          <t>31,77; 58,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 31,8</t>
+          <t>8,85; 26,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 22,32</t>
+          <t>2,0; 17,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 39,61</t>
+          <t>24,37; 52,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,33; 51,26</t>
+          <t>35,62; 55,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 20,68</t>
+          <t>10,4; 23,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,79; 26,11</t>
+          <t>5,27; 18,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,72; 38,89</t>
+          <t>25,63; 46,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>45,62%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28,51%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39,79%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,78%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,79%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33,59%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39,08%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>15,77%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,68%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>38,11%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>44,17%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>15,99%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>13,37%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>34,8%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>45,04%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>15,88%</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>31,08%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,31; 60,76</t>
+          <t>31,22; 45,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 26,71</t>
+          <t>13,13; 23,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 17,92</t>
+          <t>8,02; 17,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,55; 51,62</t>
+          <t>16,9; 36,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,16; 61,13</t>
+          <t>33,39; 46,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,28; 27,0</t>
+          <t>9,62; 18,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 24,17</t>
+          <t>9,34; 19,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,58; 49,67</t>
+          <t>28,11; 40,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,23; 56,0</t>
+          <t>34,4; 44,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,08; 22,73</t>
+          <t>12,48; 19,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 19,18</t>
+          <t>9,91; 17,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,69; 47,6</t>
+          <t>24,44; 36,55</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>39,79%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13,78%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13,79%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>34,13%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>38,26%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>17,92%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>12,54%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>33,15%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>39,08%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>15,77%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>13,16%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>33,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>33,21; 46,54</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,89; 18,8</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>9,39; 19,31</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>28,48; 40,5</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>31,35; 45,21</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>13,2; 23,25</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 17,6</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>26,2; 39,89</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>34,53; 43,54</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>12,63; 19,62</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>10,14; 16,88</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>29,24; 38,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
